--- a/Example table.xlsx
+++ b/Example table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\G-Rutgers\GitHub\Recipe-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3297A90-3023-49C3-8ACD-0A9B133168A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F475764B-7C88-4BA4-9B2C-5CE0B6711544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{5481E907-EA9E-4959-BAA8-F080FAB26C10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Olive Oil</t>
   </si>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -136,6 +136,7 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,7 +1257,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,6 +1292,10 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(C2:E2)</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -1308,6 +1313,10 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(C3:E3)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -1325,6 +1334,10 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="6">
+        <f>AVERAGE(C4:E4)</f>
+        <v>1.1666666666666667</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -1342,6 +1355,10 @@
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(C5:E5)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -1359,8 +1376,61 @@
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:E2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:E4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
